--- a/SuRGE_Sharepoint/data/CIN/CH4_046_Maple_Lake/dataSheets/surgeData046.xlsx
+++ b/SuRGE_Sharepoint/data/CIN/CH4_046_Maple_Lake/dataSheets/surgeData046.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/CIN/CH4_046_Maple_Lake/dataSheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/beaulieu_jake_epa_gov/Documents/gitRepository/SuRGE/SuRGE_Sharepoint/data/CIN/CH4_046_Maple_Lake/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="407" documentId="8_{2F64C856-5F81-48F5-BD59-0989022DBB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C185006F-A26F-4F2E-9D44-2F372250CCFE}"/>
+  <xr:revisionPtr revIDLastSave="408" documentId="8_{2F64C856-5F81-48F5-BD59-0989022DBB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5058E777-64B5-4C22-87EB-96517A272154}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="34560" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1389,9 +1389,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1429,7 +1429,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1535,7 +1535,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1677,7 +1677,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1688,78 +1688,78 @@
   <dimension ref="A1:BZ21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J22" sqref="J22"/>
+      <pane xSplit="2" topLeftCell="BC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BT16" sqref="BT16:BV16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.1796875" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.21875" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+    <col min="6" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.1796875" customWidth="1"/>
-    <col min="30" max="30" width="10.26953125" customWidth="1"/>
-    <col min="31" max="31" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.21875" customWidth="1"/>
+    <col min="30" max="30" width="10.21875" customWidth="1"/>
+    <col min="31" max="31" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="11" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="5" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="6.453125" customWidth="1"/>
-    <col min="51" max="51" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="23.1796875" customWidth="1"/>
-    <col min="65" max="65" width="14.81640625" customWidth="1"/>
-    <col min="66" max="66" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="6.44140625" customWidth="1"/>
+    <col min="51" max="51" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="23.21875" customWidth="1"/>
+    <col min="65" max="65" width="14.77734375" customWidth="1"/>
+    <col min="66" max="66" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="18" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="22.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -1851,7 +1851,7 @@
       <c r="BY1" s="32"/>
       <c r="BZ1" s="32"/>
     </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>84</v>
       </c>
@@ -2160,15 +2160,6 @@
       <c r="AI3">
         <v>0.03</v>
       </c>
-      <c r="BT3" t="s">
-        <v>89</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>90</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>91</v>
-      </c>
       <c r="BW3">
         <v>2.0647000000000002</v>
       </c>
@@ -2182,7 +2173,7 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>84</v>
       </c>
@@ -2283,7 +2274,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>84</v>
       </c>
@@ -2360,7 +2351,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>84</v>
       </c>
@@ -2437,7 +2428,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>84</v>
       </c>
@@ -2511,7 +2502,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>84</v>
       </c>
@@ -2597,7 +2588,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>84</v>
       </c>
@@ -2671,7 +2662,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>84</v>
       </c>
@@ -2769,7 +2760,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>84</v>
       </c>
@@ -2870,7 +2861,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>84</v>
       </c>
@@ -2971,7 +2962,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>84</v>
       </c>
@@ -3069,7 +3060,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>84</v>
       </c>
@@ -3146,7 +3137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>84</v>
       </c>
@@ -3220,7 +3211,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>84</v>
       </c>
@@ -3320,8 +3311,17 @@
       <c r="BE16">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="BT16" t="s">
+        <v>89</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>90</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>84</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
         <v>84</v>
       </c>
@@ -3410,7 +3410,7 @@
       <c r="I18" s="26"/>
       <c r="U18" s="27"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
         <v>84</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
         <v>84</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
         <v>84</v>
       </c>
@@ -3466,14 +3466,14 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="116.81640625" customWidth="1"/>
-    <col min="3" max="3" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.77734375" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>119</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -4256,17 +4256,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="25"/>
-    <col min="3" max="3" width="15.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" customWidth="1"/>
-    <col min="9" max="9" width="14.1796875" customWidth="1"/>
-    <col min="10" max="10" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="25"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>5</v>
       </c>
@@ -4282,7 +4282,7 @@
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
@@ -4316,7 +4316,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>84</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>84</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>84</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>84</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>84</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>84</v>
       </c>
@@ -4507,14 +4507,14 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.54296875" customWidth="1"/>
-    <col min="3" max="3" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5546875" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>119</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>198</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>199</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>200</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>201</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>202</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>203</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>204</v>
       </c>
@@ -4632,57 +4632,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
-    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j747ac98061d40f0aa7bd47e1db5675d>
-    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Creator>
-    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </EPA_x0020_Contributor>
-    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF5FC5DD832BE4DBA6B24560DD3ADC0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d40b3e6283001fb57e5088f84fb23d5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="8b03727f-4454-4722-b3e6-018d8dcaf2fd" xmlns:ns6="ed970698-2d60-4bab-a048-d9be527522d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aadbb8160917885bdc8cfb32badaafe9" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5153,6 +5102,57 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
   <ds:schemaRefs>
@@ -5162,9 +5162,24 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B867DAC5-4D55-43C8-80F4-0155C98DFC9B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="8b03727f-4454-4722-b3e6-018d8dcaf2fd"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5184,5 +5199,9 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B867DAC5-4D55-43C8-80F4-0155C98DFC9B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>